--- a/docs/data/reliability-old/vo2max-g1.xlsx
+++ b/docs/data/reliability-old/vo2max-g1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706194\projects\quant-methods-workshops\data\reliability-old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE40D22D-6402-4F9B-8DBE-9B77E5D13A53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F2D7CB-139F-4B45-9AE2-A9515855B377}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31965" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{525C726F-614B-4854-A6C7-FB1C4DE28A17}"/>
   </bookViews>
